--- a/WDDprojectCheckList.xlsx
+++ b/WDDprojectCheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edaoz\OneDrive\Desktop\projectWDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FC115F-94C1-4384-99C0-89692F432C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878DB685-B8FE-4D9C-B701-191E0EE81D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC4871A7-87E9-400E-8844-9811E13AA789}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -998,12 +998,55 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1410,61 +1453,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="bf565209-2b21-4ee4-af8d-f3a2c0cda902"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1489,18 +1498,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf565209-2b21-4ee4-af8d-f3a2c0cda902"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/WDDprojectCheckList.xlsx
+++ b/WDDprojectCheckList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edaoz\OneDrive\Desktop\projectWDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edaoz\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878DB685-B8FE-4D9C-B701-191E0EE81D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{D850C941-CDBF-403D-98B3-B03B460F53B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E888F566-0844-4192-8E34-9490A2A744FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC4871A7-87E9-400E-8844-9811E13AA789}"/>
   </bookViews>
@@ -21,57 +21,179 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+  <si>
+    <t>WDD_Project_2025</t>
+  </si>
   <si>
     <t>Done Y/N?</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Goals for this week</t>
-  </si>
-  <si>
-    <t>week 8</t>
-  </si>
-  <si>
-    <t>read brief &amp; be familiar with it</t>
-  </si>
-  <si>
-    <t>week 9</t>
-  </si>
-  <si>
-    <t>week 10</t>
-  </si>
-  <si>
-    <t>week 11</t>
-  </si>
-  <si>
-    <t>week 12</t>
-  </si>
-  <si>
-    <t>Submission</t>
   </si>
   <si>
     <t>Team 
 Member</t>
   </si>
   <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Goals for this week</t>
+  </si>
+  <si>
+    <t>Hande Eda Ozdemir</t>
+  </si>
+  <si>
+    <t>Htet Oo Khin</t>
+  </si>
+  <si>
+    <t>Menomi Gamage</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>read brief &amp; be familiar with it</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>brainstorm with group - what sustainability goal to use</t>
+  </si>
+  <si>
     <t>team member strengths and weaknesses</t>
   </si>
   <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>HTML and JS</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>HTML coding and JavaScript</t>
+  </si>
+  <si>
+    <t>Weaknesses</t>
+  </si>
+  <si>
+    <t>sometimes CSS</t>
+  </si>
+  <si>
+    <t>CSS, JS</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>1 person creates a shared folder and shares it!</t>
   </si>
   <si>
     <t>my own wireframe</t>
   </si>
   <si>
-    <t>decide who does this</t>
+    <t>sitemap for whole website</t>
+  </si>
+  <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>Research topics related to Sustainability of life below water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up initial HTML pages </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Build a skeleton website (contain all 6 pages)</t>
+  </si>
+  <si>
+    <t>Home Page and About page</t>
+  </si>
+  <si>
+    <t>Gallery and NASA page</t>
+  </si>
+  <si>
+    <t>Threats and What can we do page</t>
+  </si>
+  <si>
+    <t>Code the navigation bar ( consistant across all pages)</t>
+  </si>
+  <si>
+    <t>Set up CSS file</t>
+  </si>
+  <si>
+    <t>incoporate responsive elements (desktop/mobile)</t>
+  </si>
+  <si>
+    <t>Test Website in various screen sizes</t>
+  </si>
+  <si>
+    <t>Screenshots and progress evidence of each webpage</t>
+  </si>
+  <si>
+    <t>record who contributed - meeting and coding</t>
+  </si>
+  <si>
+    <t>Let Emer know if someone is out of contact</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>Add content and images etc into skeleton website</t>
+  </si>
+  <si>
+    <t>Develop more CSS ??</t>
+  </si>
+  <si>
+    <t>Set up JS file and incoporate elements</t>
+  </si>
+  <si>
+    <t>Update GitHub repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments in HTML, CSS and JS </t>
+  </si>
+  <si>
+    <t>week 11</t>
+  </si>
+  <si>
+    <t>Add proper design CSS and formatting</t>
+  </si>
+  <si>
+    <t>JS vaildation for form</t>
+  </si>
+  <si>
+    <t>Finalies HTML files and the content</t>
+  </si>
+  <si>
+    <t>Test Webpages and carry out debugging</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>finish up code</t>
   </si>
   <si>
     <t>deploy website</t>
@@ -80,24 +202,9 @@
     <t>testing - functional testing, speed test</t>
   </si>
   <si>
-    <t>finish up code</t>
-  </si>
-  <si>
     <t>Write/record report</t>
   </si>
   <si>
-    <t>record who contributed - meeting and coding</t>
-  </si>
-  <si>
-    <t>Let Emer know if someone is out of contact</t>
-  </si>
-  <si>
-    <t>add your tasks and assign them to a team member</t>
-  </si>
-  <si>
-    <t>sitemap for whole website</t>
-  </si>
-  <si>
     <t>only one CSS file - if possible more marks</t>
   </si>
   <si>
@@ -113,22 +220,13 @@
     <t>everyone has DOM manipulation on their own webpage</t>
   </si>
   <si>
-    <t>WDD_Project_2025</t>
-  </si>
-  <si>
-    <t>brainstorm with group - what sustainability goal to use</t>
+    <t>Submission</t>
   </si>
   <si>
     <t>SUNDAY</t>
   </si>
   <si>
-    <t>use bootstrap or responsive framework. *you cannot use a theme.</t>
-  </si>
-  <si>
-    <t>use file path structures. *extra marks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consistent navigation across all webpages. </t>
+    <t>PROJECT REQUIREMENTS</t>
   </si>
   <si>
     <r>
@@ -146,6 +244,15 @@
     </r>
   </si>
   <si>
+    <t>use bootstrap or responsive framework. *you cannot use a theme.</t>
+  </si>
+  <si>
+    <t>use file path structures. *extra marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistent navigation across all webpages. </t>
+  </si>
+  <si>
     <t>meta tags on every HTML file to clearly show the author (for individual grading)</t>
   </si>
   <si>
@@ -159,9 +266,6 @@
   </si>
   <si>
     <t>on-going regular commits to your own GitHub repo over the duration of the project</t>
-  </si>
-  <si>
-    <t>PROJECT REQUIREMENTS</t>
   </si>
   <si>
     <r>
@@ -196,21 +300,12 @@
   <si>
     <t>If doing a video report, provide the link to the video demonstration in your document.</t>
   </si>
-  <si>
-    <t>1-Menomi Gamage</t>
-  </si>
-  <si>
-    <t>2-Hande Eda Ozdemir</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +343,33 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +382,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -271,18 +409,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,8 +497,78 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,9 +605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +645,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +751,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +893,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -645,207 +901,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A20EA6-9FE1-4F65-A2C0-41C46F4D1B7C}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56:F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="23.45"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="104.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17" style="10" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="47.1" customHeight="1">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="23.45" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.45" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.25" customHeight="1">
+      <c r="B6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="27"/>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="23.25">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.45" customHeight="1"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23.45" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" ht="23.25">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="37" spans="1:6" ht="23.45" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" ht="23.25">
+      <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="23.25">
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="23.25">
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="23.25">
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" ht="23.25"/>
+    <row r="45" spans="1:6" ht="23.45" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" ht="23.45" customHeight="1">
+      <c r="B53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="56" spans="1:6" ht="23.45" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="31">
+        <v>2</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    </row>
+    <row r="57" spans="1:6" ht="23.45" customHeight="1">
+      <c r="D57" s="29"/>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="23.45" customHeight="1"/>
+    <row r="59" spans="1:6" ht="23.25"/>
+    <row r="60" spans="1:6" ht="23.25"/>
+    <row r="61" spans="1:6" ht="23.25"/>
+    <row r="62" spans="1:6" ht="23.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -859,136 +1450,136 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="36.90625" customWidth="1"/>
+    <col min="1" max="2" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="b">
+    <row r="1" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="7" t="b">
+    <row r="3" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7" t="b">
+    <row r="4" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="7" t="b">
+    <row r="5" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7" t="b">
+    <row r="6" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="7" t="b">
+    <row r="7" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="7" t="b">
+    <row r="8" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="b">
+    <row r="9" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="8" t="b">
+    <row r="10" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="8" t="b">
+    <row r="12" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="8" t="b">
+    <row r="13" spans="1:2" ht="91.5" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="8" t="b">
+    <row r="14" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8" t="b">
+    <row r="15" spans="1:2" ht="77.45" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7" t="b">
+    <row r="16" spans="1:2" ht="45.95" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -998,58 +1589,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
-    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009267F4E1BDB0BA4ABFCFBFE514C604C8" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61ddfe86c7f6991e5d8570e77096b500">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a400bed3-dd80-47b5-be8a-0e5cea58c044" xmlns:ns3="bf565209-2b21-4ee4-af8d-f3a2c0cda902" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f845289874843908626a75dec0325abb" ns2:_="" ns3:_="">
     <xsd:import namespace="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
@@ -1452,7 +1991,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1461,46 +2000,66 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DefaultSectionNames xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Owner xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Has_Teacher_Only_SectionGroup xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Invited_Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <CultureName xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Distribution_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <TeamsChannelId xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teachers xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Math_Settings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <FolderType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Templates xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <AppVersion xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <LMS_Mappings xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <NotebookType xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044" xsi:nil="true"/>
+    <Students xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="a400bed3-dd80-47b5-be8a-0e5cea58c044">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="bf565209-2b21-4ee4-af8d-f3a2c0cda902"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A6CF24-95A3-4D7A-A7CF-B44ADA1363FA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4A6CF24-95A3-4D7A-A7CF-B44ADA1363FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a400bed3-dd80-47b5-be8a-0e5cea58c044"/>
-    <ds:schemaRef ds:uri="bf565209-2b21-4ee4-af8d-f3a2c0cda902"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8144FC7C-9872-4D39-8984-1737A434D946}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45813AF1-8288-45E9-83B6-FF3A559347C4}"/>
 </file>